--- a/checkpoints/checkpoint_issue_sub_issue_method_2.xlsx
+++ b/checkpoints/checkpoint_issue_sub_issue_method_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,126 +458,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Gula</t>
+          <t>Galon Botol 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Chocolate moist cake alias kek ketagih yang beberapa tahun lalu sempet viral. Awalnya dari negeri tetangga, mungkin karena rasanya yang enak jadi viral sampai sini. Ini versi ekonomis dan pemula ya, walaupun ga pake telur rasanya tetep lembut dan moist karena komposisi cairan dari cake ini lumayan tinggi. Ga perlu pake mixer juga biar kuenya ngembang yang penting gunakan baking powder yang aktif, berkualitas, tidak expired agar kuenya tetap dapat mengembang dengan baik. Kue ini bisa dipanggang (suhu 170-180•c selama 30menit), tapi menurutku lbh moist hasilnya kalau dikukus. Jadi yuk cobain di rumah!
-Chocolate Moist Cake / Kek Ketagih Tanpa Telur
-(Aku pakai loyang 20 cm, kalau mau hasilnya lebih tinggi bisa gunakan loyang 16-18cm)
-Bahan cake:
-Bahan cake:
-240 ml susu cair (aku pakai susu UHT full cream)
-140 g gula
-60 ml minyak sayur
-1/4 sdt garam
-150 g terigu serbaguna (protein sedang)
-50 g coklat bubuk
-1 sdt baking powder (aku pakai baking powder double acting dari kis.baking )
-1 sdt bubuk kopi (opsional)
-Bahan ganache coklat:
-250 g susu cair
-1 sdt agar bubuk plain
-250 g dark chocolate compound 
-1 sdt mentega/ margarin
-#cake #chocolate #chocolatecake #moistcake #kekketagih #resep #resepmudah #reseppemula #idejualan #cemilan #resepkue #kueultah #kue #bolucoklat #kuecoklat #brownies #brownieskukus #foodie #fyp #viral #reels #instagram</t>
+          <t>@alcholcx Tmenku dlu maling laptop kantor jga gitu, d masukin plastik sampah item trus pura" d buang ke pembuangan sampah, la trus dia hbungi tmennya unk ambil plastik sampah tsb.. Tp untung aja terekam cctv dan laptop kembali aman,  datanya cma masuk ke recycle bin doang 😆</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Ayam Pedas</t>
+          <t>x</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Gula</t>
+          <t>Boikot.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Part II: Mukbang bersama Nyi Wilengi edisi mie ayam kaki lima @Film Pabrik Gula  #pabrikgulafilm #pabrikgulauncut #fyp #horrormovie #filmindonesia #nyiwilengi</t>
+          <t>@jonnypengacara coba tanya, berani hancurin hp mereka ga? yg kekmgknan besar made in negara komunis, kalo bukan, OS nya buatan negara kafir.
+kl kerja laptopnya made in mana? os nya yg katanya di boikot mw pindah ke linux...yg penciptanya ateis...jd alat komunikasi mereka cm merpati doang</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Mie Ayam</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Gula</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>dessert terenak di 2025 so far!!! #alexcooks  combonya super cocok &amp; berasa premium banget ? rasanya medok, nampol &amp; creates such a beautiful harmony in ur mouth ? dan ternyata... kalo matchanya diganti ke kopi LEBIH ENAK LAGI!!! double shot espresso with just 80 ml of milk, a bit of sweetener, ice, and then top it off with the banana pudding. kalo gaada mesin kopi tinggal beli iced latte tapi minta susunya kurangin/setengahin aja biar kopinya lebih nampol. PERCAYA DEH ENAK GILAAKK!!! banana pudding (inspired by @matchaonomu on IG) banana pastry cream: 120 gr pisang cavendish, hancurkan 1/2 sdt vanilla essence 200 ml susu 40 gr gula 20 gr tepung maizena 3 kuning telur nilla wafers/egg drop: 55 gr unsalted butter, suhu ruang 60 gr gula 1 telur, kocok 1/2 sdt vanilla essence 85 gr terigu protein sedang 2 gr baking powder 10 gr susu  banana pudding: 250 ml whipping cream 120 gr kental manis banana custard nilla wafers 3-4 pisang cavendish matcha latte: 5 gr matcha powder 50 ml air panas (jangan mendidih) 100 ml susu  pemanis/madu secukupnya es batu secukupnya cara membuat: 1. Banana pastry cream: aduk rata gula dan tepung maizena lalu masukkan susu. Api kecil sedang, aduk terus hingga mulai mengental. Masukkan kuning telur satu per satu sambil terus diaduk. Masak lagi sekitar 5 menit sambil diaduk terus atau sampai meletup-letup. Pindahkan ke mangkok, masukkan pisang dan vanilla essence, aduk rata. Tutup dengan cling wrap dan biarkan hingga dingin. 2. Nilla wafers: Kocok butter dan gula hingga pucat. Masukkan kocokan telur secara bertahap sambil terus dikocok lalu masukkan vanilla essence. Tuang terigu &amp; baking powder yang sudah diayak lalu aduk rata. Tuang susu lalu aduk rata. Masukkan ke plastik segitiga lalu semprot ke atas baking paper berbentuk bulat sebesar koin. Pastikan tiap adonan jangan terlalu dekat agar tidak menempel saat dipanggang. Basahi ujung jari dengan air, ratakan bagian ujung adonan yang mencuat. Panggang di suhu 175o api atas bawah selama 12-15 menit. Tunggu hingga suhu ruang.  3. Banana pudding: Kocok whipping cream &amp; kental manis hingga mulai kaku. Masukkan sekitar 1/3 dari banana pastry cream lalu kocok lagi dengan kecepatan rendah cukup hingga tercampur. Masukkan sisa pastry cream dan aduk lagi dengan teknik folding.  4. Ratakan banana pudding di dasar wadah lalu tata pisang dan nilla wafers. Tutup lagi dengan banana pudding. Ulangi hingga penuh. Di layer paling atas, hancurkan nilla wafers. Diamkan di kulkas minimal 3 jam. 5. Matcha latte: Tuang air panas ke matcha powder lalu whisk. Tuang pemanis ke susu lalu aduk rata. Tuang susu ke gelas berisi es lalu tuang matcha. Tata banana pudding lalu sajikan.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Film Pabrik Gula</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Gula</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>TERNYATA JUMBO ADA DI PABRIK GULA!?️???? #PabrikGula #filmpabrikgula #Jumbo #filmjumbo #TikTokTainment #RekomendasiFilm #BahasTontonan #entertainment</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Kreasi Sasa</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Gula</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Membalas @Gula.aren_ ga sabarrr beso iphone 16 dahh bisa diambil😭🫰🏻 btw case nya di b!o no 42 #case</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Banana Pudding</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Gula</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Repost from @Hayati.  Part II: Mukbang bersama Nyi Wilengi edisi mie ayam kaki lima @Film Pabrik Gula #pabrikgulafilm #pabrikgulauncut #fyp #horrormovie #filmindonesia #nyiwilengi</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Chocolate Cake</t>
+          <t>Boikot</t>
         </is>
       </c>
     </row>
